--- a/Excel/Data_cleaning.xlsx
+++ b/Excel/Data_cleaning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITCS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D30B5-A6BA-47AC-80E0-940B4EE4D945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36E16BC-E1C9-49E7-9C1E-238B2DF1B9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="2835" windowWidth="20085" windowHeight="12390" xr2:uid="{1D9A24D0-0A37-471B-8535-30E73FFA9A36}"/>
+    <workbookView xWindow="17370" yWindow="3240" windowWidth="10815" windowHeight="11385" xr2:uid="{1D9A24D0-0A37-471B-8535-30E73FFA9A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>user_id</t>
   </si>
@@ -84,13 +84,13 @@
     <t>SMS Pack</t>
   </si>
   <si>
+    <t>Annual Lite</t>
+  </si>
+  <si>
     <t>Premium Plan</t>
   </si>
   <si>
     <t>Monthly Mini</t>
-  </si>
-  <si>
-    <t>_c</t>
   </si>
 </sst>
 </file>
@@ -482,12 +482,16 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,25 +535,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>102</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -631,25 +623,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>106</v>
-      </c>
-      <c r="B8" s="2">
-        <v>249</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45663</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -671,13 +651,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2">
+        <v>399</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45665</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -699,13 +691,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2">
+        <v>299</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45667</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -744,10 +748,10 @@
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>113</v>
       </c>
@@ -784,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
